--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/累计折旧.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/累计折旧.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>54.30622</v>
-      </c>
-      <c r="C2" t="n">
-        <v>273.7024</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.17492</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0341</v>
-      </c>
-      <c r="F2" t="n">
-        <v>42.63058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>204.82991</v>
-      </c>
-      <c r="H2" t="n">
-        <v>160.50854</v>
-      </c>
-      <c r="I2" t="n">
-        <v>59.14028</v>
-      </c>
-      <c r="J2" t="n">
-        <v>58.09489</v>
-      </c>
-      <c r="K2" t="n">
-        <v>166.24258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4372.48924</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20.25843</v>
-      </c>
-      <c r="N2" t="n">
-        <v>45.58813</v>
-      </c>
-      <c r="O2" t="n">
-        <v>132.89702</v>
-      </c>
-      <c r="P2" t="n">
-        <v>43.07918</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.38608</v>
-      </c>
-      <c r="R2" t="n">
-        <v>119.806</v>
-      </c>
-      <c r="S2" t="n">
-        <v>36.97786</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>66.74235</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.61514</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.51845</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.34606</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>831.6854</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>513.3107</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>237.79947</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>66.87599</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>23.99269</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.00592</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>241.24048</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.94579</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>93.64989</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>153.00398</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>229.68233</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>2.9128</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>117.83617</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>112.73804</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>140.57445</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>61.22118</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.13484</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>68.39196</v>
-      </c>
-      <c r="C3" t="n">
-        <v>340.69088</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61.48713</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>49.94368</v>
-      </c>
-      <c r="G3" t="n">
-        <v>270.22235</v>
-      </c>
-      <c r="H3" t="n">
-        <v>73.45677000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>71.69213000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>98.50192</v>
-      </c>
-      <c r="K3" t="n">
-        <v>207.87218</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5417.91407</v>
-      </c>
-      <c r="M3" t="n">
-        <v>25.68435</v>
-      </c>
-      <c r="N3" t="n">
-        <v>52.62834</v>
-      </c>
-      <c r="O3" t="n">
-        <v>165.23828</v>
-      </c>
-      <c r="P3" t="n">
-        <v>47.79207</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.57883</v>
-      </c>
-      <c r="R3" t="n">
-        <v>136.27377</v>
-      </c>
-      <c r="S3" t="n">
-        <v>42.64721</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>77.42673000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5.80401</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.84165</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.56351</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1017.57925</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>662.04258</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>297.35753</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>81.01546</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>137.15227</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.05564</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>293.79183</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.21334</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>126.38896</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>187.12382</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>270.11536</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3.19075</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>141.91155</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>129.04805</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>173.78848</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>90.13639999999999</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.26505</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>81.52772</v>
-      </c>
-      <c r="C4" t="n">
-        <v>453.19624</v>
-      </c>
-      <c r="D4" t="n">
-        <v>75.99738000000001</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>62.11063</v>
-      </c>
-      <c r="G4" t="n">
-        <v>314.92421</v>
-      </c>
-      <c r="H4" t="n">
-        <v>96.33365999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>90.90340999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>89.28784</v>
-      </c>
-      <c r="K4" t="n">
-        <v>249.46304</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6520.35569</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32.04786</v>
-      </c>
-      <c r="N4" t="n">
-        <v>65.39601</v>
-      </c>
-      <c r="O4" t="n">
-        <v>210.82199</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57.05321</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.5632</v>
-      </c>
-      <c r="R4" t="n">
-        <v>154.56349</v>
-      </c>
-      <c r="S4" t="n">
-        <v>47.8643</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>92.00265</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4.825</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.29674</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.26966</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1216.10504</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>864.99526</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>337.45617</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>88.17787</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>157.40713</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.06082</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>334.4358</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9.05063</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>163.60773</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>222.27625</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>311.09304</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>4.00251</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>169.51866</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>156.67942</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>201.84401</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>91.62599</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.39468</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
